--- a/biology/Médecine/Syndrome_carcinoïde/Syndrome_carcinoïde.xlsx
+++ b/biology/Médecine/Syndrome_carcinoïde/Syndrome_carcinoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_carcino%C3%AFde</t>
+          <t>Syndrome_carcinoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome carcinoïde (ou syndrome des carcinoïdes) est un syndrome paranéoplasique observé en association avec les tumeurs carcinoïdes.
 Il associe flush et diarrhées motrices, par sécrétion de sérotonine par les cellules tumorales.
